--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\cs555_assignment\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EC9BC-CF44-4961-9981-BF023861D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7ACBA-7FA6-4B2B-8E31-B5AB4928E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19968" yWindow="1428" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -18379,7 +18379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -19594,8 +19594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19691,6 +19691,15 @@
       <c r="F4">
         <v>60</v>
       </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -19710,6 +19719,15 @@
       </c>
       <c r="F5">
         <v>60</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\cs555_assignment\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7ACBA-7FA6-4B2B-8E31-B5AB4928E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DC814E-0F19-4CCE-BD3E-BB998F7BBFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19595,7 +19595,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19683,7 +19683,7 @@
         <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -19712,7 +19712,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>20</v>

--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\cs555_assignment\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DC814E-0F19-4CCE-BD3E-BB998F7BBFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E91269-A1A0-439B-9D07-6AAAA0579938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19595,7 +19595,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\cs555_assignment\cs555tm062022Fall\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Nidhin\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E91269-A1A0-439B-9D07-6AAAA0579938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E538A7-2550-4131-8D7A-EC63AF2BB9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -19595,7 +19595,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19741,7 +19741,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -19761,7 +19761,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>20</v>

--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Nidhin\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E538A7-2550-4131-8D7A-EC63AF2BB9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA62FC-BD1B-4FEC-924F-132EC5BF4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -19595,7 +19595,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19749,6 +19749,15 @@
       <c r="F6">
         <v>90</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -19768,6 +19777,15 @@
       </c>
       <c r="F7">
         <v>90</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 4/Team06Report.xlsx
+++ b/Sprint 4/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Nidhin\cs555tm062022Fall\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA62FC-BD1B-4FEC-924F-132EC5BF4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C48EEF-B659-4C35-95D0-E472B37FFAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -18379,8 +18379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18554,6 +18554,15 @@
       <c r="F6">
         <v>60</v>
       </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -18573,6 +18582,15 @@
       </c>
       <c r="F7">
         <v>60</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19594,8 +19612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
